--- a/techniqo/data_new_ticker/CROMPTON.xlsx
+++ b/techniqo/data_new_ticker/CROMPTON.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1076"/>
+  <dimension ref="A1:G1078"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38046,6 +38046,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1077" t="n">
+        <v>270.95</v>
+      </c>
+      <c r="C1077" t="n">
+        <v>283.5</v>
+      </c>
+      <c r="D1077" t="n">
+        <v>270.95</v>
+      </c>
+      <c r="E1077" t="n">
+        <v>276.05</v>
+      </c>
+      <c r="F1077" t="n">
+        <v>4515488</v>
+      </c>
+      <c r="G1077" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1078" t="n">
+        <v>278</v>
+      </c>
+      <c r="C1078" t="n">
+        <v>284</v>
+      </c>
+      <c r="D1078" t="n">
+        <v>273.55</v>
+      </c>
+      <c r="E1078" t="n">
+        <v>280.15</v>
+      </c>
+      <c r="F1078" t="n">
+        <v>1019261</v>
+      </c>
+      <c r="G1078" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/CROMPTON.xlsx
+++ b/techniqo/data_new_ticker/CROMPTON.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1078"/>
+  <dimension ref="A1:G1080"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38096,6 +38096,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1079" t="n">
+        <v>275.1</v>
+      </c>
+      <c r="C1079" t="n">
+        <v>283</v>
+      </c>
+      <c r="D1079" t="n">
+        <v>273.65</v>
+      </c>
+      <c r="E1079" t="n">
+        <v>279.1</v>
+      </c>
+      <c r="F1079" t="n">
+        <v>294108</v>
+      </c>
+      <c r="G1079" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1080" t="n">
+        <v>282.8</v>
+      </c>
+      <c r="C1080" t="n">
+        <v>285.45</v>
+      </c>
+      <c r="D1080" t="n">
+        <v>275.7</v>
+      </c>
+      <c r="E1080" t="n">
+        <v>279.7</v>
+      </c>
+      <c r="F1080" t="n">
+        <v>862059</v>
+      </c>
+      <c r="G1080" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
